--- a/Unity/Assets/Config/Excel/PropertyRandomConfig.xlsx
+++ b/Unity/Assets/Config/Excel/PropertyRandomConfig.xlsx
@@ -783,7 +783,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -835,12 +835,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="49" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="49" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1174,7 +1168,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
@@ -1293,8 +1287,8 @@
       <c r="B8" s="15">
         <v>2002</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23" t="s">
+      <c r="C8" s="16"/>
+      <c r="D8" s="16" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="17">
@@ -1318,76 +1312,76 @@
       </c>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="24"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="26"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="24"/>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="26"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="24"/>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="26"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="24"/>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="24"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="26"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="24"/>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="24"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="24"/>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="24"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="26"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="24"/>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="24"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="26"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="24"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="26"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="24"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="26"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="24"/>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="26"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="24"/>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="26"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="24"/>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="26"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Unity/Assets/Config/Excel/PropertyRandomConfig.xlsx
+++ b/Unity/Assets/Config/Excel/PropertyRandomConfig.xlsx
@@ -783,7 +783,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -815,6 +815,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1168,17 +1171,18 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="9" style="5"/>
     <col min="2" max="2" width="13.875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="25.5" style="5" customWidth="1"/>
-    <col min="4" max="4" width="31.5" style="5" customWidth="1"/>
-    <col min="5" max="5" width="17.5" style="6" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="6"/>
+    <col min="3" max="3" width="16.375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12.875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="13.125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="13.5" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:6">
@@ -1235,7 +1239,7 @@
       <c r="E4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="15" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1256,132 +1260,132 @@
       <c r="F5" s="8"/>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="15">
+      <c r="B6" s="16">
         <v>2001</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16" t="s">
+      <c r="C6" s="17"/>
+      <c r="D6" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="18">
         <v>10</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="19">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="19"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20" t="s">
+      <c r="B7" s="20"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="22">
         <v>20</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="23">
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="15">
+      <c r="B8" s="16">
         <v>2002</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16" t="s">
+      <c r="C8" s="17"/>
+      <c r="D8" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="18">
         <v>350</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="19">
         <v>550</v>
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="19"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20" t="s">
+      <c r="B9" s="20"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="22">
         <v>10</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="23">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="25"/>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="25"/>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="25"/>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="25"/>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="24"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="25"/>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="25"/>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="25"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="25"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="25"/>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="25"/>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="24"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="25"/>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Unity/Assets/Config/Excel/PropertyRandomConfig.xlsx
+++ b/Unity/Assets/Config/Excel/PropertyRandomConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25140" windowHeight="10065" tabRatio="809"/>
+    <workbookView windowWidth="18465" windowHeight="8325" tabRatio="809"/>
   </bookViews>
   <sheets>
     <sheet name="PropertyRandomConfig" sheetId="6" r:id="rId1"/>
@@ -783,7 +783,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -819,11 +819,8 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -831,7 +828,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1171,7 +1168,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
@@ -1239,7 +1236,7 @@
       <c r="E4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="14" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1260,139 +1257,141 @@
       <c r="F5" s="8"/>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="16">
+      <c r="B6" s="15">
         <v>2001</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17" t="s">
+      <c r="C6" s="16"/>
+      <c r="D6" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="17">
         <v>10</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="18">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="20"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21" t="s">
+      <c r="B7" s="19"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="21">
         <v>20</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="22">
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="16">
+      <c r="B8" s="15">
         <v>2002</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17" t="s">
+      <c r="C8" s="16"/>
+      <c r="D8" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="17">
         <v>350</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="18">
         <v>550</v>
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="20"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21" t="s">
+      <c r="B9" s="19"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="21">
         <v>10</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="22">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="25"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="24"/>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="25"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="24"/>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="25"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="24"/>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="25"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="24"/>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="25"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="24"/>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="25"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="24"/>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="25"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="24"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="25"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="24"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="25"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="24"/>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="25"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="24"/>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="25"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="24"/>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="25"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="D5:F5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
